--- a/ssf_its_tagging_scheme.xlsx
+++ b/ssf_its_tagging_scheme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\demultiplexer2 testing\data_input_yvonne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\demultiplexer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB14C7B-F62A-4B65-B6C5-C06077E3525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337E390-1CA9-4926-B25D-D6D693B9B3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32685" yWindow="1020" windowWidth="22365" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:T2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
